--- a/storage/Q2 Marketing Campaign.xlsx
+++ b/storage/Q2 Marketing Campaign.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -32,10 +32,10 @@
     <t>Q2 Marketing Campaign</t>
   </si>
   <si>
-    <t>2026-02-10T16:31:44.290Z</t>
-  </si>
-  <si>
-    <t>2026-02-10T16:31:44.310Z</t>
+    <t>2026-02-11T00:12:14.643Z</t>
+  </si>
+  <si>
+    <t>2026-02-11T00:12:14.656Z</t>
   </si>
   <si>
     <t># Project: Q2 Marketing Campaign</t>
@@ -59,46 +59,43 @@
     <t>## People</t>
   </si>
   <si>
-    <t>- Alice: Content Creation, Social Media Management</t>
+    <t>- Alice: Content Creation, Copywriting</t>
   </si>
   <si>
     <t>- Bob: Graphic Design, Branding</t>
   </si>
   <si>
-    <t>- Charlie: Data Analysis, Reporting</t>
+    <t>- Carol: Data Analysis, Reporting</t>
   </si>
   <si>
     <t>## Timeline</t>
   </si>
   <si>
-    <t>- Sprint 1: (2024-04-01 to 2024-04-14) [50%] {actual: 2024-04-01 to 2024-04-14} Initial planning and content creation</t>
-  </si>
-  <si>
-    <t>- Sprint 2: (2024-04-15 to 2024-04-30) [50%] {actual: 2024-04-15 to 2024-04-30} Design and analytics review</t>
+    <t>- Sprint 1: (2024-04-01 to 2024-04-14) [50%] {actual: 2024-04-01 to 2024-04-14} Initial content and design setup</t>
+  </si>
+  <si>
+    <t>- Sprint 2: (2024-04-15 to 2024-04-30) [50%] {actual: TBD} Campaign execution and analytics</t>
   </si>
   <si>
     <t>## Tasks</t>
   </si>
   <si>
-    <t>- Develop content strategy and calendar (Alice) {Sprint 1} &lt;Initial draft due by end of week 1&gt; [todo]</t>
-  </si>
-  <si>
-    <t>- Create social media posts (Alice) {Sprint 1} &lt;To be scheduled after content strategy&gt; [todo]</t>
-  </si>
-  <si>
-    <t>- Design campaign graphics (Bob) {Sprint 1} &lt;Initial concepts due by end of week 1&gt; [todo]</t>
-  </si>
-  <si>
-    <t>- Analyze previous campaign data (Charlie) {Sprint 1} &lt;To inform current strategy&gt; [todo]</t>
-  </si>
-  <si>
-    <t>- Finalize content and graphics (Alice, Bob) {Sprint 2} &lt;Due by end of sprint&gt; [todo]</t>
-  </si>
-  <si>
-    <t>- Set up tracking for campaign performance (Charlie) {Sprint 2} &lt;To be completed before launch&gt; [todo]</t>
-  </si>
-  <si>
-    <t>- Prepare campaign report (Charlie) {Sprint 2} &lt;Due after campaign completion&gt; [todo]</t>
+    <t>- Develop content strategy and outline (Alice) {Sprint 1} &lt;Initial planning&gt; [todo]</t>
+  </si>
+  <si>
+    <t>- Create visual assets for campaign (Bob) {Sprint 1} &lt;Design phase&gt; [todo]</t>
+  </si>
+  <si>
+    <t>- Set up analytics tracking (Carol) {Sprint 1} &lt;Preparation for data collection&gt; [todo]</t>
+  </si>
+  <si>
+    <t>- Write and finalize campaign copy (Alice) {Sprint 1} &lt;Content finalization&gt; [in-progress]</t>
+  </si>
+  <si>
+    <t>- Review and approve design assets (Bob) {Sprint 1} &lt;Awaiting feedback&gt; [todo]</t>
+  </si>
+  <si>
+    <t>- Analyze initial campaign metrics (Carol) {Sprint 2} &lt;Post-launch analysis&gt; [todo]</t>
   </si>
   <si>
     <t>Responsibilities</t>
@@ -107,7 +104,7 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>Content Creation, Social Media Management</t>
+    <t>Content Creation, Copywriting</t>
   </si>
   <si>
     <t>Bob</t>
@@ -116,7 +113,7 @@
     <t>Graphic Design, Branding</t>
   </si>
   <si>
-    <t>Charlie</t>
+    <t>Carol</t>
   </si>
   <si>
     <t>Data Analysis, Reporting</t>
@@ -137,7 +134,7 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Develop content strategy and calendar</t>
+    <t>Develop content strategy and outline</t>
   </si>
   <si>
     <t>todo</t>
@@ -146,49 +143,43 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Initial draft due by end of week 1</t>
-  </si>
-  <si>
-    <t>Create social media posts</t>
-  </si>
-  <si>
-    <t>To be scheduled after content strategy</t>
-  </si>
-  <si>
-    <t>Design campaign graphics</t>
-  </si>
-  <si>
-    <t>Initial concepts due by end of week 1</t>
-  </si>
-  <si>
-    <t>Analyze previous campaign data</t>
-  </si>
-  <si>
-    <t>To inform current strategy</t>
-  </si>
-  <si>
-    <t>Finalize content and graphics</t>
-  </si>
-  <si>
-    <t>Alice, Bob</t>
+    <t>Initial planning</t>
+  </si>
+  <si>
+    <t>Create visual assets for campaign</t>
+  </si>
+  <si>
+    <t>Design phase</t>
+  </si>
+  <si>
+    <t>Set up analytics tracking</t>
+  </si>
+  <si>
+    <t>Preparation for data collection</t>
+  </si>
+  <si>
+    <t>Write and finalize campaign copy</t>
+  </si>
+  <si>
+    <t>in-progress</t>
+  </si>
+  <si>
+    <t>Content finalization</t>
+  </si>
+  <si>
+    <t>Review and approve design assets</t>
+  </si>
+  <si>
+    <t>Awaiting feedback</t>
+  </si>
+  <si>
+    <t>Analyze initial campaign metrics</t>
   </si>
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Due by end of sprint</t>
-  </si>
-  <si>
-    <t>Set up tracking for campaign performance</t>
-  </si>
-  <si>
-    <t>To be completed before launch</t>
-  </si>
-  <si>
-    <t>Prepare campaign report</t>
-  </si>
-  <si>
-    <t>Due after campaign completion</t>
+    <t>Post-launch analysis</t>
   </si>
   <si>
     <t>Label</t>
@@ -212,7 +203,7 @@
     <t>ActualEndDate</t>
   </si>
   <si>
-    <t>Initial planning and content creation</t>
+    <t>Initial content and design setup</t>
   </si>
   <si>
     <t>2024-04-01</t>
@@ -221,7 +212,7 @@
     <t>2024-04-14</t>
   </si>
   <si>
-    <t>Design and analytics review</t>
+    <t>{actual: TBD} Campaign execution and analytics</t>
   </si>
   <si>
     <t>2024-04-15</t>
@@ -267,6 +258,9 @@
   </si>
   <si>
     <t>50% on time</t>
+  </si>
+  <si>
+    <t>50%</t>
   </si>
   <si>
     <t>Progress %</t>
@@ -300,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -333,6 +327,11 @@
     <font>
       <b/>
       <color rgb="FF16A34A"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF2563EB"/>
       <sz val="9"/>
     </font>
     <font>
@@ -457,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -481,43 +480,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,7 +899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="120" customWidth="1"/>
@@ -1014,11 +1018,6 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1041,31 +1040,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="12" customWidth="1"/>
@@ -1084,84 +1083,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
@@ -1172,50 +1171,33 @@
         <v>49</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1238,71 +1220,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1321,10 +1303,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1353,48 +1335,48 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="AI2" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="5"/>
@@ -1414,33 +1396,33 @@
       <c r="Y3" s="11"/>
       <c r="AF3" s="11"/>
       <c r="AI3" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="5"/>
-      <c r="AI4" s="12" t="s">
-        <v>82</v>
+      <c r="R4" s="13"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="2"/>
+      <c r="AI4" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1463,119 +1445,119 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" ht="22" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="21">
+        <v>50</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="21">
+        <v>50</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="H4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="I4" s="28" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" ht="22" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="18">
-        <v>50</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" ht="22" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="18">
-        <v>50</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
